--- a/results/comparaison/depolarization_prism_cv.xlsx
+++ b/results/comparaison/depolarization_prism_cv.xlsx
@@ -1566,257 +1566,347 @@
       <c r="GO2">
         <v>1</v>
       </c>
+      <c r="GP2">
+        <v>1</v>
+      </c>
+      <c r="GQ2">
+        <v>1</v>
+      </c>
+      <c r="GR2">
+        <v>1</v>
+      </c>
+      <c r="GS2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:201">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1.019490351938449</v>
+      </c>
+      <c r="D3">
+        <v>1.034755017502922</v>
+      </c>
+      <c r="E3">
         <v>1.028985694975425</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.027486806136796</v>
+      </c>
+      <c r="I3">
+        <v>1.013964390290441</v>
+      </c>
+      <c r="J3">
         <v>1.028114806492678</v>
       </c>
-      <c r="D3">
-        <v>1.028943660303087</v>
-      </c>
-      <c r="E3">
-        <v>1.038334572480474</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.058691845605635</v>
       </c>
-      <c r="G3">
-        <v>1.039520678659662</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>1.059297831019733</v>
+      </c>
+      <c r="M3">
+        <v>1.058201224467945</v>
+      </c>
+      <c r="N3">
         <v>1.030201533287014</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.041597464654502</v>
       </c>
-      <c r="L3">
-        <v>1.031393899981857</v>
-      </c>
-      <c r="N3">
-        <v>1.027901897161312</v>
-      </c>
       <c r="P3">
-        <v>1.061346541606758</v>
-      </c>
-      <c r="R3">
-        <v>1.039604900054885</v>
-      </c>
-      <c r="S3">
-        <v>1.05075712492379</v>
+        <v>1.052029642631643</v>
+      </c>
+      <c r="Q3">
+        <v>1.027644078932877</v>
       </c>
       <c r="T3">
-        <v>1.011046358799586</v>
+        <v>1.012820076953408</v>
+      </c>
+      <c r="U3">
+        <v>1.045275297423683</v>
       </c>
       <c r="V3">
-        <v>1.03376176403712</v>
-      </c>
-      <c r="X3">
-        <v>1.027486806136796</v>
+        <v>1.037034809713349</v>
+      </c>
+      <c r="W3">
+        <v>1.016802258680082</v>
       </c>
       <c r="Y3">
-        <v>1.06211488775738</v>
+        <v>1.037711520866278</v>
       </c>
       <c r="Z3">
-        <v>1.013964390290441</v>
-      </c>
-      <c r="AB3">
-        <v>0.9741373510186409</v>
+        <v>1.054283347045349</v>
+      </c>
+      <c r="AA3">
+        <v>1.051527272910527</v>
       </c>
       <c r="AC3">
-        <v>1.000953724038466</v>
+        <v>1.051677681637568</v>
       </c>
       <c r="AD3">
-        <v>1.042671442929646</v>
-      </c>
-      <c r="AE3">
-        <v>1.021356137470107</v>
+        <v>1.058299416554164</v>
       </c>
       <c r="AF3">
-        <v>1.061790378223298</v>
+        <v>1.025267438590707</v>
       </c>
       <c r="AG3">
-        <v>0.973310195958348</v>
-      </c>
-      <c r="AH3">
-        <v>0.9975170034299954</v>
+        <v>1.120363481397009</v>
       </c>
       <c r="AI3">
-        <v>1.107476598885766</v>
+        <v>1.093098686151412</v>
       </c>
       <c r="AJ3">
-        <v>1.045275419634054</v>
+        <v>1.047918954033563</v>
+      </c>
+      <c r="AK3">
+        <v>1.034262959954898</v>
       </c>
       <c r="AL3">
-        <v>1.003040096561858</v>
+        <v>1.086226724656153</v>
+      </c>
+      <c r="AM3">
+        <v>0.9921056170542332</v>
       </c>
       <c r="AN3">
-        <v>1.070150059713279</v>
+        <v>1.100869494620574</v>
       </c>
       <c r="AO3">
-        <v>1.031215673964527</v>
+        <v>1.071168641218214</v>
       </c>
       <c r="AP3">
-        <v>1.028861314233508</v>
+        <v>1.057143990148756</v>
       </c>
       <c r="AQ3">
-        <v>1.091325724932333</v>
+        <v>1.055044152422377</v>
       </c>
       <c r="AR3">
-        <v>1.083670672388879</v>
+        <v>1.038570527304706</v>
       </c>
       <c r="AT3">
-        <v>1.029189117648779</v>
+        <v>1.088890989844932</v>
+      </c>
+      <c r="AU3">
+        <v>1.059272430024948</v>
       </c>
       <c r="AV3">
-        <v>1.003184950099644</v>
+        <v>1.023716837173579</v>
       </c>
       <c r="AW3">
-        <v>1.131039183052347</v>
+        <v>1.098368198708662</v>
       </c>
       <c r="AX3">
-        <v>1.020789540939884</v>
+        <v>1.010869214664657</v>
       </c>
       <c r="AY3">
-        <v>0.9262640849928456</v>
-      </c>
-      <c r="AZ3">
-        <v>1.068965953665293</v>
+        <v>1.202997426682925</v>
       </c>
       <c r="BA3">
-        <v>1.056819701107494</v>
+        <v>1.08222916681199</v>
       </c>
       <c r="BB3">
-        <v>1.041321661272426</v>
+        <v>1.068520433734275</v>
       </c>
       <c r="BC3">
-        <v>1.054322276345845</v>
+        <v>1.071696534027684</v>
       </c>
       <c r="BD3">
-        <v>1.081627575810803</v>
+        <v>1.114261213756487</v>
       </c>
       <c r="BE3">
-        <v>1.0717455064757</v>
+        <v>1.056340295121748</v>
       </c>
       <c r="BF3">
-        <v>1.045400060888421</v>
-      </c>
-      <c r="BG3">
-        <v>1.04242466580635</v>
+        <v>1.069011292212144</v>
       </c>
       <c r="BH3">
-        <v>1.042419321521738</v>
+        <v>1.093930321468172</v>
       </c>
       <c r="BI3">
-        <v>1.074016250206407</v>
+        <v>1.047216947435964</v>
       </c>
       <c r="BJ3">
-        <v>1.08100153533789</v>
+        <v>1.118468195216721</v>
+      </c>
+      <c r="BK3">
+        <v>1.044526961449845</v>
       </c>
       <c r="BL3">
-        <v>1.118103440555061</v>
-      </c>
-      <c r="BM3">
-        <v>1.118118181848238</v>
+        <v>1.112985689702672</v>
+      </c>
+      <c r="BN3">
+        <v>1.13202587114985</v>
+      </c>
+      <c r="BO3">
+        <v>0.9959598480801403</v>
+      </c>
+      <c r="BP3">
+        <v>1.067233870922645</v>
       </c>
       <c r="BQ3">
-        <v>1.011604664208487</v>
+        <v>1.120893966374992</v>
       </c>
       <c r="BR3">
-        <v>1.122319703388444</v>
+        <v>1.071293539463475</v>
       </c>
       <c r="BS3">
-        <v>1.087207413733972</v>
+        <v>1.101347808301738</v>
       </c>
       <c r="BT3">
-        <v>0.9566185588237941</v>
+        <v>1.117419014899073</v>
       </c>
       <c r="BU3">
-        <v>1.114573017792374</v>
+        <v>1.056976484376443</v>
       </c>
       <c r="BV3">
-        <v>1.049192361074369</v>
+        <v>1.050092408702682</v>
       </c>
       <c r="BW3">
-        <v>1.113871989019135</v>
+        <v>1.099378466114117</v>
       </c>
       <c r="BX3">
-        <v>1.065993595423611</v>
-      </c>
-      <c r="CA3">
-        <v>0.9965398747808139</v>
+        <v>1.111599169949609</v>
+      </c>
+      <c r="BY3">
+        <v>1.056908271249082</v>
+      </c>
+      <c r="BZ3">
+        <v>1.137612174804017</v>
       </c>
       <c r="CB3">
-        <v>1.036166631980288</v>
+        <v>1.014398149915974</v>
+      </c>
+      <c r="CC3">
+        <v>0.9577225114860826</v>
       </c>
       <c r="CD3">
-        <v>1.071872235664505</v>
+        <v>1.027421956858668</v>
       </c>
       <c r="CE3">
-        <v>1.038771597208112</v>
+        <v>0.9686825499187086</v>
       </c>
       <c r="CF3">
-        <v>1.091358541251236</v>
+        <v>0.9579911119265747</v>
+      </c>
+      <c r="CG3">
+        <v>1.063932595516744</v>
       </c>
       <c r="CH3">
-        <v>1.032658081887789</v>
+        <v>1.041366004451061</v>
+      </c>
+      <c r="CI3">
+        <v>0.9442001785917388</v>
       </c>
       <c r="CK3">
-        <v>1.054835009296258</v>
+        <v>1.076006455839712</v>
+      </c>
+      <c r="CL3">
+        <v>1.07201847876022</v>
       </c>
       <c r="CM3">
-        <v>1.068029310828625</v>
+        <v>1.101420944533702</v>
       </c>
       <c r="CN3">
-        <v>1.042517193614337</v>
+        <v>1.008153518738614</v>
+      </c>
+      <c r="CO3">
+        <v>1.066677037634353</v>
       </c>
       <c r="CP3">
-        <v>1.050138607763591</v>
+        <v>1.027955404413325</v>
+      </c>
+      <c r="CQ3">
+        <v>1.193594472341819</v>
+      </c>
+      <c r="CR3">
+        <v>1.042392624905088</v>
       </c>
       <c r="CS3">
-        <v>1.052394104926992</v>
+        <v>1.074664425672044</v>
+      </c>
+      <c r="CT3">
+        <v>0.8802116208688545</v>
+      </c>
+      <c r="CU3">
+        <v>1.067679548215475</v>
+      </c>
+      <c r="CV3">
+        <v>1.098673526064589</v>
+      </c>
+      <c r="CW3">
+        <v>1.050638592038853</v>
       </c>
       <c r="CX3">
         <v>1.004998485729397</v>
       </c>
+      <c r="CY3">
+        <v>0.9489060862758661</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9528029508472408</v>
+      </c>
       <c r="DA3">
+        <v>1.000333978199248</v>
+      </c>
+      <c r="DB3">
         <v>0.9961147858432577</v>
       </c>
-      <c r="DB3">
+      <c r="DC3">
+        <v>0.9899639617916376</v>
+      </c>
+      <c r="DD3">
         <v>1.003596860031729</v>
       </c>
-      <c r="DD3">
+      <c r="DE3">
+        <v>0.9526540204795436</v>
+      </c>
+      <c r="DF3">
         <v>0.9956663440372839</v>
       </c>
-      <c r="DE3">
+      <c r="DG3">
         <v>1.00764570282768</v>
       </c>
-      <c r="DG3">
-        <v>1.005971099237136</v>
+      <c r="DH3">
+        <v>0.9860064430826756</v>
       </c>
       <c r="DI3">
         <v>1.006614430509009</v>
       </c>
       <c r="DJ3">
+        <v>1.005971099237136</v>
+      </c>
+      <c r="DK3">
+        <v>0.98904440268988</v>
+      </c>
+      <c r="DL3">
         <v>0.9975902908159153</v>
       </c>
-      <c r="DK3">
+      <c r="DM3">
         <v>0.9964210456217801</v>
       </c>
-      <c r="DL3">
+      <c r="DN3">
         <v>1.004396994956372</v>
       </c>
       <c r="DO3">
-        <v>0.9931613132829493</v>
+        <v>0.9681401147790645</v>
+      </c>
+      <c r="DP3">
+        <v>0.9647684496176481</v>
+      </c>
+      <c r="DQ3">
+        <v>0.9877085912176785</v>
+      </c>
+      <c r="DR3">
+        <v>0.9875283264693054</v>
       </c>
       <c r="DS3">
         <v>0.9969695149873663</v>
       </c>
+      <c r="DT3">
+        <v>1.000545653080265</v>
+      </c>
       <c r="DU3">
         <v>0.9956547960290978</v>
       </c>
@@ -1824,387 +1914,750 @@
         <v>0.9995765314068487</v>
       </c>
       <c r="DW3">
-        <v>0.9892914712652355</v>
+        <v>0.9711665465511022</v>
       </c>
       <c r="DX3">
-        <v>1.007622067040176</v>
+        <v>0.9893136466645609</v>
+      </c>
+      <c r="DY3">
+        <v>0.9557147662815383</v>
+      </c>
+      <c r="DZ3">
+        <v>0.994740666044831</v>
+      </c>
+      <c r="EB3">
+        <v>1.005258963962468</v>
+      </c>
+      <c r="EC3">
+        <v>1.012691917401751</v>
+      </c>
+      <c r="ED3">
+        <v>0.9609893704989393</v>
+      </c>
+      <c r="EE3">
+        <v>1.005374816433446</v>
+      </c>
+      <c r="EF3">
+        <v>1.007138821898188</v>
+      </c>
+      <c r="EH3">
+        <v>0.9933150246141221</v>
+      </c>
+      <c r="EI3">
+        <v>0.9753887278404958</v>
+      </c>
+      <c r="EJ3">
+        <v>0.995699145008149</v>
+      </c>
+      <c r="EK3">
+        <v>1.025198253937815</v>
+      </c>
+      <c r="EL3">
+        <v>1.002070331456669</v>
       </c>
       <c r="EM3">
-        <v>1.002782798965719</v>
+        <v>0.999783101042781</v>
       </c>
       <c r="EN3">
-        <v>0.9973526503927418</v>
+        <v>0.9969875463709889</v>
       </c>
       <c r="EO3">
-        <v>1.002686056390494</v>
+        <v>1.062684042523076</v>
       </c>
       <c r="EP3">
-        <v>0.994740666044831</v>
+        <v>1.017188045217942</v>
       </c>
       <c r="EQ3">
-        <v>1.005258963962468</v>
+        <v>0.9843435407037235</v>
+      </c>
+      <c r="ER3">
+        <v>1.004543419339149</v>
       </c>
       <c r="ET3">
-        <v>1.005374816433446</v>
+        <v>0.9422223990843193</v>
+      </c>
+      <c r="EU3">
+        <v>1.028701610325962</v>
+      </c>
+      <c r="EV3">
+        <v>1.006597153990014</v>
+      </c>
+      <c r="EW3">
+        <v>1.024158060818731</v>
       </c>
       <c r="EX3">
-        <v>1.015948762610981</v>
+        <v>1.017969869145677</v>
       </c>
       <c r="EY3">
-        <v>0.9970148607602174</v>
+        <v>0.9685985346526578</v>
+      </c>
+      <c r="EZ3">
+        <v>1.005351666221357</v>
+      </c>
+      <c r="FA3">
+        <v>0.9904192629263667</v>
       </c>
       <c r="FB3">
-        <v>1.015719607522478</v>
+        <v>1.0187615461788</v>
+      </c>
+      <c r="FC3">
+        <v>1.002579668981311</v>
+      </c>
+      <c r="FD3">
+        <v>1.019464179077873</v>
       </c>
       <c r="FE3">
-        <v>1.012347998821578</v>
+        <v>1.053593809985595</v>
       </c>
       <c r="FF3">
-        <v>1.020809949911709</v>
+        <v>0.9947918681272044</v>
       </c>
       <c r="FG3">
-        <v>1.016601820945316</v>
+        <v>1.000388358576103</v>
+      </c>
+      <c r="FI3">
+        <v>1.015681076768246</v>
+      </c>
+      <c r="FJ3">
+        <v>1.016743264209539</v>
       </c>
       <c r="FK3">
-        <v>1.025051052148283</v>
+        <v>1.016520601694606</v>
       </c>
       <c r="FL3">
-        <v>1.007299638815466</v>
+        <v>1.033019014522124</v>
       </c>
       <c r="FM3">
-        <v>1.022032772260211</v>
+        <v>0.9982915926386859</v>
       </c>
       <c r="FN3">
-        <v>1.009811548149924</v>
+        <v>1.02404875516961</v>
       </c>
       <c r="FO3">
-        <v>1.038221028245038</v>
+        <v>1.064632365549449</v>
+      </c>
+      <c r="FP3">
+        <v>1.008821102161681</v>
       </c>
       <c r="FQ3">
-        <v>1.024032031105739</v>
+        <v>1.003206305358787</v>
       </c>
       <c r="FR3">
-        <v>1.000704655505356</v>
+        <v>0.9252074735688569</v>
+      </c>
+      <c r="FS3">
+        <v>1.022654205576302</v>
+      </c>
+      <c r="FT3">
+        <v>1.01358487205368</v>
+      </c>
+      <c r="FU3">
+        <v>1.007943644715575</v>
+      </c>
+      <c r="FV3">
+        <v>0.9901194007069207</v>
+      </c>
+      <c r="FW3">
+        <v>0.9759196159168324</v>
+      </c>
+      <c r="FX3">
+        <v>1.006940413908467</v>
+      </c>
+      <c r="FY3">
+        <v>0.9939186267217343</v>
+      </c>
+      <c r="FZ3">
+        <v>0.9906048353680738</v>
+      </c>
+      <c r="GA3">
+        <v>0.9205269399789363</v>
+      </c>
+      <c r="GB3">
+        <v>1.005045881267678</v>
       </c>
       <c r="GC3">
-        <v>0.9992848968062233</v>
+        <v>1.096506523615565</v>
+      </c>
+      <c r="GD3">
+        <v>0.9656124276700576</v>
+      </c>
+      <c r="GE3">
+        <v>1.003086663519497</v>
       </c>
       <c r="GG3">
-        <v>0.9806768982971102</v>
+        <v>0.9947616974832728</v>
+      </c>
+      <c r="GH3">
+        <v>1.042453035379122</v>
+      </c>
+      <c r="GI3">
+        <v>1.021051045228991</v>
       </c>
       <c r="GJ3">
-        <v>0.9762220782242751</v>
+        <v>1.094025167333005</v>
+      </c>
+      <c r="GK3">
+        <v>0.9958763141335562</v>
+      </c>
+      <c r="GL3">
+        <v>0.9955672931557583</v>
+      </c>
+      <c r="GM3">
+        <v>1.01283250860532</v>
+      </c>
+      <c r="GN3">
+        <v>1.038987825899321</v>
+      </c>
+      <c r="GO3">
+        <v>1.061203433804177</v>
+      </c>
+      <c r="GP3">
+        <v>0.9637118560921032</v>
+      </c>
+      <c r="GQ3">
+        <v>0.9675304273454099</v>
+      </c>
+      <c r="GR3">
+        <v>1.030035293940089</v>
       </c>
     </row>
     <row r="4" spans="1:201">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.053441544557175</v>
+      </c>
       <c r="C4">
+        <v>1.010582849511675</v>
+      </c>
+      <c r="D4">
+        <v>1.027700289702359</v>
+      </c>
+      <c r="E4">
+        <v>1.044639385427054</v>
+      </c>
+      <c r="H4">
+        <v>1.043322552745728</v>
+      </c>
+      <c r="I4">
+        <v>1.025384315676794</v>
+      </c>
+      <c r="J4">
         <v>1.035980780787155</v>
       </c>
-      <c r="D4">
-        <v>1.015695422571741</v>
-      </c>
-      <c r="E4">
-        <v>1.044916446416335</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.067236967495993</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>1.071982962870688</v>
+      </c>
+      <c r="M4">
+        <v>1.054420742957628</v>
+      </c>
+      <c r="N4">
         <v>1.035850997535692</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.033095052101973</v>
       </c>
-      <c r="L4">
-        <v>1.041268651242764</v>
-      </c>
-      <c r="N4">
-        <v>1.019884513713013</v>
+      <c r="P4">
+        <v>1.060818399072389</v>
       </c>
       <c r="Q4">
-        <v>1.017410132187202</v>
-      </c>
-      <c r="R4">
-        <v>1.058988149712097</v>
-      </c>
-      <c r="S4">
-        <v>1.06323925336243</v>
+        <v>1.019588008715811</v>
       </c>
       <c r="T4">
-        <v>0.9832234840963853</v>
+        <v>1.008968081753867</v>
+      </c>
+      <c r="U4">
+        <v>1.051377121387819</v>
       </c>
       <c r="V4">
-        <v>1.02826688797372</v>
+        <v>1.04728193934611</v>
       </c>
       <c r="W4">
-        <v>1.054450137665959</v>
-      </c>
-      <c r="X4">
-        <v>1.043322552745728</v>
-      </c>
-      <c r="Y4">
-        <v>1.067942832150727</v>
+        <v>1.022480020621656</v>
+      </c>
+      <c r="Z4">
+        <v>1.056502588664677</v>
+      </c>
+      <c r="AA4">
+        <v>1.113772312623591</v>
       </c>
       <c r="AC4">
-        <v>1.023955418242758</v>
-      </c>
-      <c r="AE4">
-        <v>1.024426752642217</v>
+        <v>1.060628779893198</v>
+      </c>
+      <c r="AD4">
+        <v>1.053602985792745</v>
       </c>
       <c r="AF4">
-        <v>1.099444410458777</v>
-      </c>
-      <c r="AH4">
-        <v>1.018477031282745</v>
+        <v>1.026762618592371</v>
+      </c>
+      <c r="AG4">
+        <v>1.109601800651377</v>
       </c>
       <c r="AI4">
-        <v>1.11285235794004</v>
+        <v>1.101663070224818</v>
       </c>
       <c r="AJ4">
-        <v>1.046028114776911</v>
+        <v>1.049441803271055</v>
+      </c>
+      <c r="AK4">
+        <v>1.034269855623401</v>
       </c>
       <c r="AL4">
-        <v>1.026297429643704</v>
+        <v>1.091162037077091</v>
+      </c>
+      <c r="AM4">
+        <v>0.9931882256189019</v>
+      </c>
+      <c r="AN4">
+        <v>1.099171887906202</v>
       </c>
       <c r="AO4">
-        <v>1.05524133225346</v>
+        <v>1.068628487253009</v>
       </c>
       <c r="AP4">
-        <v>1.025949351460743</v>
+        <v>1.056908778248512</v>
       </c>
       <c r="AQ4">
-        <v>1.095365896893388</v>
+        <v>1.07683558260305</v>
       </c>
       <c r="AR4">
-        <v>1.087907487898439</v>
-      </c>
-      <c r="AS4">
-        <v>0.9933187935321899</v>
+        <v>1.048066029953924</v>
       </c>
       <c r="AT4">
-        <v>1.067167267537246</v>
+        <v>1.089890118376664</v>
+      </c>
+      <c r="AU4">
+        <v>1.075392764841387</v>
       </c>
       <c r="AV4">
-        <v>1.008134898975069</v>
+        <v>1.028733306705848</v>
       </c>
       <c r="AW4">
-        <v>1.113603820193348</v>
+        <v>1.05214397589031</v>
       </c>
       <c r="AX4">
-        <v>1.050950946545099</v>
+        <v>1.027323168023347</v>
+      </c>
+      <c r="AY4">
+        <v>1.186647308326384</v>
       </c>
       <c r="AZ4">
-        <v>1.073075757877699</v>
+        <v>1.026361461426842</v>
       </c>
       <c r="BA4">
-        <v>1.061536682440867</v>
+        <v>1.086698087985767</v>
       </c>
       <c r="BB4">
-        <v>1.027467424141556</v>
+        <v>1.068491542062343</v>
       </c>
       <c r="BC4">
-        <v>1.027886582613778</v>
+        <v>1.067148910170943</v>
       </c>
       <c r="BD4">
-        <v>1.089101142553065</v>
+        <v>1.078483872148043</v>
       </c>
       <c r="BE4">
-        <v>1.089381683382733</v>
+        <v>1.065267106541109</v>
       </c>
       <c r="BF4">
-        <v>1.038913155492687</v>
-      </c>
-      <c r="BG4">
-        <v>1.019859951693519</v>
+        <v>1.087305610721378</v>
       </c>
       <c r="BH4">
-        <v>1.040207587310319</v>
+        <v>1.103770649657129</v>
       </c>
       <c r="BI4">
-        <v>1.088587532570379</v>
+        <v>1.051047831403094</v>
       </c>
       <c r="BJ4">
-        <v>1.08557623225569</v>
+        <v>1.117841198854194</v>
+      </c>
+      <c r="BK4">
+        <v>1.020292344023858</v>
       </c>
       <c r="BL4">
-        <v>1.110250270113967</v>
+        <v>1.107716260800927</v>
       </c>
       <c r="BM4">
-        <v>1.119948219040823</v>
+        <v>0.981496065998462</v>
       </c>
       <c r="BN4">
-        <v>1.087939526664151</v>
+        <v>1.121956173557019</v>
       </c>
       <c r="BO4">
-        <v>1.032195085782167</v>
+        <v>0.9589990518414792</v>
+      </c>
+      <c r="BP4">
+        <v>1.08131138624733</v>
+      </c>
+      <c r="BQ4">
+        <v>1.028619611407771</v>
       </c>
       <c r="BR4">
-        <v>1.125938437852023</v>
+        <v>1.054099334875331</v>
       </c>
       <c r="BS4">
-        <v>1.093693124764149</v>
+        <v>1.095621944879763</v>
+      </c>
+      <c r="BT4">
+        <v>1.124541108051196</v>
       </c>
       <c r="BU4">
-        <v>1.109034373159995</v>
+        <v>1.046963180605242</v>
+      </c>
+      <c r="BV4">
+        <v>1.009571559218586</v>
+      </c>
+      <c r="BW4">
+        <v>1.074315639904456</v>
       </c>
       <c r="BX4">
-        <v>1.047400166358948</v>
+        <v>1.104192562085216</v>
       </c>
       <c r="BY4">
-        <v>1.089007113022616</v>
-      </c>
-      <c r="CA4">
-        <v>0.9723697416414059</v>
+        <v>1.053222465930349</v>
+      </c>
+      <c r="BZ4">
+        <v>1.134947420835545</v>
+      </c>
+      <c r="CB4">
+        <v>0.9947869578101824</v>
+      </c>
+      <c r="CC4">
+        <v>0.8834166127035783</v>
+      </c>
+      <c r="CD4">
+        <v>0.995438925754573</v>
       </c>
       <c r="CE4">
-        <v>1.00483396955714</v>
+        <v>0.9771674217241891</v>
       </c>
       <c r="CF4">
-        <v>1.0651637160088</v>
+        <v>0.9661297452342399</v>
+      </c>
+      <c r="CG4">
+        <v>1.051803783004852</v>
       </c>
       <c r="CH4">
-        <v>1.007158343170417</v>
+        <v>1.02966477794136</v>
       </c>
       <c r="CI4">
-        <v>1.002705525953853</v>
+        <v>0.967436988816223</v>
       </c>
       <c r="CK4">
-        <v>1.040976928876332</v>
+        <v>1.074806534527182</v>
       </c>
       <c r="CL4">
-        <v>1.015672130912654</v>
+        <v>1.061763674749766</v>
       </c>
       <c r="CM4">
-        <v>1.05946755630077</v>
+        <v>1.102091144754632</v>
       </c>
       <c r="CN4">
-        <v>1.032826286733875</v>
+        <v>0.9955999618381579</v>
+      </c>
+      <c r="CO4">
+        <v>1.03702832899093</v>
       </c>
       <c r="CP4">
-        <v>1.053235561776941</v>
+        <v>1.041970183217267</v>
+      </c>
+      <c r="CQ4">
+        <v>1.22930973930335</v>
+      </c>
+      <c r="CR4">
+        <v>1.041701319767191</v>
       </c>
       <c r="CS4">
-        <v>1.048783612102095</v>
+        <v>1.026832569795146</v>
+      </c>
+      <c r="CT4">
+        <v>0.6813639016721117</v>
       </c>
       <c r="CU4">
-        <v>1.060561046324362</v>
+        <v>1.053824430987178</v>
+      </c>
+      <c r="CV4">
+        <v>1.090952649736568</v>
+      </c>
+      <c r="CW4">
+        <v>1.073778093871292</v>
       </c>
       <c r="CX4">
         <v>1.011550549851733</v>
       </c>
+      <c r="CY4">
+        <v>0.9651003445768116</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9638152362387742</v>
+      </c>
       <c r="DA4">
+        <v>1.010310154642442</v>
+      </c>
+      <c r="DB4">
         <v>1.002348892426666</v>
       </c>
-      <c r="DB4">
+      <c r="DD4">
         <v>1.008863544273919</v>
       </c>
-      <c r="DD4">
+      <c r="DE4">
+        <v>1.0122564183436</v>
+      </c>
+      <c r="DF4">
         <v>1.002562043876551</v>
       </c>
-      <c r="DE4">
+      <c r="DG4">
         <v>1.020181079614986</v>
       </c>
-      <c r="DG4">
-        <v>1.012841981531367</v>
+      <c r="DH4">
+        <v>0.993847960675034</v>
       </c>
       <c r="DI4">
         <v>1.014027024778851</v>
       </c>
       <c r="DJ4">
+        <v>1.012841981531367</v>
+      </c>
+      <c r="DK4">
+        <v>0.9732436299684503</v>
+      </c>
+      <c r="DL4">
         <v>1.004406777859401</v>
       </c>
-      <c r="DK4">
+      <c r="DM4">
         <v>1.008110843235172</v>
       </c>
-      <c r="DL4">
+      <c r="DN4">
         <v>1.012569977407463</v>
       </c>
       <c r="DO4">
-        <v>1.004076054558762</v>
+        <v>0.9786280105026213</v>
+      </c>
+      <c r="DP4">
+        <v>0.9763541033748235</v>
+      </c>
+      <c r="DQ4">
+        <v>0.9435695661431617</v>
+      </c>
+      <c r="DR4">
+        <v>0.9762234283989635</v>
       </c>
       <c r="DS4">
         <v>1.003622551489963</v>
       </c>
+      <c r="DT4">
+        <v>0.9839971875703108</v>
+      </c>
       <c r="DU4">
         <v>1.002352668659646</v>
       </c>
       <c r="DV4">
         <v>1.006250294607842</v>
       </c>
+      <c r="DW4">
+        <v>0.9750540925146306</v>
+      </c>
       <c r="DX4">
-        <v>1.004890841913161</v>
+        <v>1.021082011111198</v>
+      </c>
+      <c r="DY4">
+        <v>0.9511104805438783</v>
+      </c>
+      <c r="DZ4">
+        <v>1.000634331364671</v>
+      </c>
+      <c r="EB4">
+        <v>1.002257755039559</v>
+      </c>
+      <c r="EC4">
+        <v>1.021968904631852</v>
       </c>
       <c r="ED4">
+        <v>0.9706231994801439</v>
+      </c>
+      <c r="EE4">
+        <v>1.003589729765742</v>
+      </c>
+      <c r="EF4">
+        <v>1.012901830738474</v>
+      </c>
+      <c r="EH4">
+        <v>0.9913078532222795</v>
+      </c>
+      <c r="EI4">
+        <v>0.978384120629527</v>
+      </c>
+      <c r="EJ4">
         <v>0.9878458497294035</v>
       </c>
-      <c r="EF4">
+      <c r="EK4">
         <v>1.014699308881206</v>
       </c>
-      <c r="EG4">
+      <c r="EL4">
+        <v>0.9991229267604627</v>
+      </c>
+      <c r="EM4">
+        <v>0.9968967795073498</v>
+      </c>
+      <c r="EN4">
         <v>1.024476321880084</v>
       </c>
-      <c r="EI4">
-        <v>0.9941918974973142</v>
-      </c>
-      <c r="EM4">
-        <v>1.002614572627521</v>
-      </c>
-      <c r="EN4">
-        <v>0.9942038368618532</v>
-      </c>
-      <c r="EO4">
-        <v>0.9996450688975925</v>
-      </c>
       <c r="EP4">
-        <v>1.000634331364671</v>
+        <v>1.016757188681164</v>
       </c>
       <c r="EQ4">
-        <v>1.002257755039559</v>
-      </c>
-      <c r="ET4">
-        <v>1.003589729765742</v>
+        <v>1.027122562218094</v>
+      </c>
+      <c r="ER4">
+        <v>1.002656229128818</v>
+      </c>
+      <c r="EV4">
+        <v>1.006655878345933</v>
+      </c>
+      <c r="EW4">
+        <v>1.020766213467311</v>
       </c>
       <c r="EX4">
-        <v>1.017898847619771</v>
+        <v>1.013333538758003</v>
       </c>
       <c r="EY4">
-        <v>0.9949831054701505</v>
+        <v>0.9567249107941086</v>
+      </c>
+      <c r="EZ4">
+        <v>0.9851505485348917</v>
+      </c>
+      <c r="FA4">
+        <v>0.9840679226495267</v>
+      </c>
+      <c r="FB4">
+        <v>1.018361974132356</v>
+      </c>
+      <c r="FC4">
+        <v>1.002422842496825</v>
+      </c>
+      <c r="FD4">
+        <v>1.006285871080492</v>
       </c>
       <c r="FE4">
-        <v>1.014430439436977</v>
+        <v>1.052568627110682</v>
       </c>
       <c r="FF4">
-        <v>1.010655603379632</v>
+        <v>0.977124324237896</v>
       </c>
       <c r="FG4">
-        <v>1.012228011918559</v>
+        <v>0.9766740190609849</v>
+      </c>
+      <c r="FH4">
+        <v>0.9791635066654867</v>
+      </c>
+      <c r="FI4">
+        <v>1.001251341522896</v>
+      </c>
+      <c r="FJ4">
+        <v>0.9416152562292338</v>
+      </c>
+      <c r="FK4">
+        <v>1.016696258079525</v>
       </c>
       <c r="FL4">
-        <v>1.006940794659077</v>
-      </c>
-      <c r="FO4">
-        <v>1.034419779404769</v>
+        <v>1.026204058284704</v>
+      </c>
+      <c r="FM4">
+        <v>0.998816909313038</v>
+      </c>
+      <c r="FN4">
+        <v>1.01917194714616</v>
+      </c>
+      <c r="FP4">
+        <v>1.009064696714109</v>
       </c>
       <c r="FQ4">
-        <v>1.023869999415095</v>
+        <v>1.000828032538321</v>
       </c>
       <c r="FR4">
-        <v>1.008553115765007</v>
+        <v>0.9345786382009772</v>
+      </c>
+      <c r="FS4">
+        <v>1.023086511007894</v>
+      </c>
+      <c r="FT4">
+        <v>1.003004541526916</v>
+      </c>
+      <c r="FU4">
+        <v>1.023610702654489</v>
+      </c>
+      <c r="FV4">
+        <v>0.9866714466513705</v>
+      </c>
+      <c r="FW4">
+        <v>0.9860289795733903</v>
+      </c>
+      <c r="FX4">
+        <v>1.033415324841017</v>
+      </c>
+      <c r="FY4">
+        <v>0.9861855336927273</v>
+      </c>
+      <c r="FZ4">
+        <v>0.9870041182355077</v>
+      </c>
+      <c r="GA4">
+        <v>0.9169219395449988</v>
       </c>
       <c r="GB4">
-        <v>0.9885732984359372</v>
+        <v>1.016620429776457</v>
+      </c>
+      <c r="GC4">
+        <v>1.028071565262027</v>
       </c>
       <c r="GD4">
-        <v>0.9843378582252541</v>
+        <v>0.9648899799931885</v>
+      </c>
+      <c r="GE4">
+        <v>1.020768706544149</v>
       </c>
       <c r="GG4">
-        <v>0.9879341235449255</v>
+        <v>0.9939841424590814</v>
+      </c>
+      <c r="GH4">
+        <v>1.054612178101798</v>
+      </c>
+      <c r="GI4">
+        <v>0.9764192858466654</v>
       </c>
       <c r="GJ4">
-        <v>0.9740350094176607</v>
+        <v>1.062123156698967</v>
+      </c>
+      <c r="GK4">
+        <v>0.9669690564584698</v>
+      </c>
+      <c r="GL4">
+        <v>0.9928020769001376</v>
+      </c>
+      <c r="GM4">
+        <v>1.016340332152777</v>
+      </c>
+      <c r="GN4">
+        <v>1.026150022434949</v>
+      </c>
+      <c r="GO4">
+        <v>1.045685944595714</v>
+      </c>
+      <c r="GP4">
+        <v>0.9940714900639021</v>
+      </c>
+      <c r="GQ4">
+        <v>1.007675766989554</v>
+      </c>
+      <c r="GR4">
+        <v>1.018482090672499</v>
+      </c>
+      <c r="GS4">
+        <v>1.003246372412687</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -2212,304 +2665,538 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.059821217847092</v>
+      </c>
+      <c r="C5">
+        <v>1.025174486183155</v>
+      </c>
+      <c r="D5">
+        <v>1.030292389028629</v>
+      </c>
+      <c r="E5">
         <v>1.041992632695878</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.037757548237956</v>
+      </c>
+      <c r="I5">
+        <v>1.017069468943869</v>
+      </c>
+      <c r="J5">
         <v>1.038782323773367</v>
       </c>
-      <c r="D5">
-        <v>1.014855788580484</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.057205609627737</v>
       </c>
-      <c r="G5">
-        <v>1.048052390431753</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>1.057589724750539</v>
+      </c>
+      <c r="M5">
+        <v>1.053373297062962</v>
+      </c>
+      <c r="N5">
         <v>1.025776523707914</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.041457207479398</v>
       </c>
-      <c r="N5">
-        <v>1.021294138633654</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.061446131506111</v>
+      </c>
+      <c r="Q5">
+        <v>1.021293587640929</v>
+      </c>
+      <c r="R5">
         <v>1.054622687317943</v>
       </c>
-      <c r="S5">
-        <v>1.052375784746268</v>
-      </c>
-      <c r="T5">
-        <v>1.018809777813113</v>
+      <c r="U5">
+        <v>1.047085530785892</v>
       </c>
       <c r="V5">
-        <v>1.031872545567502</v>
+        <v>1.05550726364452</v>
       </c>
       <c r="W5">
-        <v>1.060571844170634</v>
-      </c>
-      <c r="X5">
-        <v>1.037757548237956</v>
-      </c>
-      <c r="Y5">
-        <v>1.055911395277853</v>
+        <v>1.006845172788033</v>
       </c>
       <c r="Z5">
-        <v>1.017069468943869</v>
-      </c>
-      <c r="AB5">
-        <v>0.9634122455499223</v>
+        <v>1.050882479216657</v>
+      </c>
+      <c r="AA5">
+        <v>1.101647523506933</v>
       </c>
       <c r="AC5">
-        <v>1.017142850103885</v>
-      </c>
-      <c r="AD5">
-        <v>1.002808231788106</v>
-      </c>
-      <c r="AE5">
-        <v>1.009907912744231</v>
-      </c>
-      <c r="AH5">
-        <v>1.004081333249263</v>
+        <v>0.8171878573659174</v>
+      </c>
+      <c r="AF5">
+        <v>1.015654637548304</v>
+      </c>
+      <c r="AG5">
+        <v>1.095998687420789</v>
       </c>
       <c r="AI5">
-        <v>1.101387822944937</v>
+        <v>1.088458070390423</v>
       </c>
       <c r="AJ5">
-        <v>1.034621964329619</v>
+        <v>1.039882726288258</v>
+      </c>
+      <c r="AK5">
+        <v>1.012243806193884</v>
       </c>
       <c r="AL5">
-        <v>1.00727469087091</v>
-      </c>
-      <c r="AO5">
-        <v>1.030218518202122</v>
+        <v>1.095496484193156</v>
+      </c>
+      <c r="AM5">
+        <v>0.9858269468902237</v>
+      </c>
+      <c r="AN5">
+        <v>1.085193601179107</v>
       </c>
       <c r="AP5">
-        <v>1.016114632614964</v>
+        <v>1.057305277047443</v>
       </c>
       <c r="AQ5">
-        <v>1.091446384108499</v>
+        <v>1.056632574249091</v>
       </c>
       <c r="AR5">
-        <v>1.070552022148631</v>
+        <v>1.040644674830025</v>
       </c>
       <c r="AT5">
-        <v>1.044336774716362</v>
+        <v>1.074671874391674</v>
+      </c>
+      <c r="AU5">
+        <v>1.062554555225155</v>
       </c>
       <c r="AV5">
-        <v>0.9946710917210507</v>
+        <v>1.017376054818062</v>
       </c>
       <c r="AW5">
-        <v>1.119972140413441</v>
+        <v>1.079848552708577</v>
       </c>
       <c r="AX5">
-        <v>1.02348588613113</v>
+        <v>1.017567820314497</v>
       </c>
       <c r="AY5">
-        <v>0.936098542248443</v>
+        <v>1.210026361153079</v>
       </c>
       <c r="AZ5">
-        <v>1.082220961222186</v>
+        <v>1.003859301535516</v>
       </c>
       <c r="BA5">
-        <v>1.065467931271913</v>
+        <v>1.092140976513702</v>
       </c>
       <c r="BB5">
-        <v>1.012669716324095</v>
+        <v>1.053929909722663</v>
       </c>
       <c r="BC5">
-        <v>1.032491206807268</v>
+        <v>1.08619698594855</v>
       </c>
       <c r="BD5">
-        <v>1.074465469408565</v>
+        <v>1.045748115160386</v>
       </c>
       <c r="BE5">
-        <v>1.083231304378333</v>
+        <v>1.066121325545073</v>
       </c>
       <c r="BF5">
-        <v>1.03450282852255</v>
+        <v>1.09246152589885</v>
+      </c>
+      <c r="BG5">
+        <v>0.9302542757981911</v>
       </c>
       <c r="BH5">
-        <v>1.038739325081146</v>
+        <v>1.093632061917837</v>
       </c>
       <c r="BI5">
-        <v>1.09002032051082</v>
+        <v>1.055017765638669</v>
       </c>
       <c r="BJ5">
-        <v>1.085626880812181</v>
+        <v>1.109817024677007</v>
+      </c>
+      <c r="BK5">
+        <v>1.009193485576238</v>
       </c>
       <c r="BL5">
-        <v>1.068957907249649</v>
+        <v>1.099743836653464</v>
+      </c>
+      <c r="BM5">
+        <v>0.9108001002455859</v>
+      </c>
+      <c r="BN5">
+        <v>1.119134263578326</v>
+      </c>
+      <c r="BO5">
+        <v>0.94753817567405</v>
       </c>
       <c r="BP5">
-        <v>1.030021435460933</v>
+        <v>1.060452492787296</v>
+      </c>
+      <c r="BQ5">
+        <v>1.035413554006143</v>
       </c>
       <c r="BR5">
-        <v>1.12440807465371</v>
+        <v>1.057172245465253</v>
       </c>
       <c r="BS5">
-        <v>1.093223831777993</v>
+        <v>1.079289058357018</v>
+      </c>
+      <c r="BT5">
+        <v>1.070008835964068</v>
       </c>
       <c r="BU5">
-        <v>1.083275195654742</v>
+        <v>1.047602205259365</v>
       </c>
       <c r="BV5">
-        <v>1.050433245620302</v>
+        <v>1.068535825951174</v>
+      </c>
+      <c r="BW5">
+        <v>1.067729434069547</v>
       </c>
       <c r="BX5">
-        <v>1.04140820905297</v>
+        <v>1.097147057498123</v>
       </c>
       <c r="BY5">
-        <v>1.091440160270309</v>
-      </c>
-      <c r="CA5">
-        <v>0.9707160137384019</v>
+        <v>1.0191321961319</v>
+      </c>
+      <c r="BZ5">
+        <v>1.155900445981181</v>
+      </c>
+      <c r="CB5">
+        <v>0.9835652253830005</v>
       </c>
       <c r="CC5">
-        <v>0.924444853810663</v>
+        <v>0.85377821238273</v>
       </c>
       <c r="CD5">
-        <v>1.082794801745532</v>
+        <v>1.007011612514719</v>
       </c>
       <c r="CE5">
-        <v>1.036674913476427</v>
+        <v>0.9728125736217719</v>
+      </c>
+      <c r="CF5">
+        <v>0.9407028940205376</v>
+      </c>
+      <c r="CG5">
+        <v>1.066042172933015</v>
       </c>
       <c r="CH5">
-        <v>1.035480647269717</v>
+        <v>1.007069668004919</v>
+      </c>
+      <c r="CI5">
+        <v>0.8988556317189068</v>
       </c>
       <c r="CK5">
-        <v>1.055484035880198</v>
+        <v>1.068912449245637</v>
+      </c>
+      <c r="CL5">
+        <v>1.045471166091238</v>
       </c>
       <c r="CM5">
-        <v>1.073077468778832</v>
+        <v>1.10026567952225</v>
       </c>
       <c r="CN5">
-        <v>1.01190487473507</v>
+        <v>0.991964021912742</v>
+      </c>
+      <c r="CO5">
+        <v>1.072587452369043</v>
       </c>
       <c r="CP5">
-        <v>1.069468343764205</v>
+        <v>1.054390968069291</v>
+      </c>
+      <c r="CQ5">
+        <v>1.23845330835708</v>
+      </c>
+      <c r="CR5">
+        <v>1.025357533024021</v>
       </c>
       <c r="CS5">
-        <v>1.025030510531404</v>
+        <v>0.9743018894637291</v>
+      </c>
+      <c r="CT5">
+        <v>0.8209220030727385</v>
       </c>
       <c r="CU5">
-        <v>1.064727299276494</v>
+        <v>1.07692651434119</v>
+      </c>
+      <c r="CV5">
+        <v>1.100594343299997</v>
       </c>
       <c r="CW5">
-        <v>0.9224219639602468</v>
+        <v>1.068326258054231</v>
       </c>
       <c r="CX5">
         <v>1.006754754389159</v>
       </c>
+      <c r="CY5">
+        <v>0.9535432504030202</v>
+      </c>
       <c r="CZ5">
+        <v>0.9379865265307827</v>
+      </c>
+      <c r="DA5">
         <v>1.004039389554689</v>
       </c>
-      <c r="DA5">
+      <c r="DB5">
         <v>0.9976469644072222</v>
       </c>
-      <c r="DB5">
+      <c r="DD5">
         <v>1.012957982860841</v>
       </c>
-      <c r="DD5">
+      <c r="DE5">
+        <v>0.9764419400629198</v>
+      </c>
+      <c r="DF5">
         <v>0.9966724353507399</v>
       </c>
-      <c r="DE5">
+      <c r="DG5">
         <v>1.012044829232857</v>
       </c>
-      <c r="DG5">
-        <v>1.007140645344393</v>
+      <c r="DH5">
+        <v>0.9667187715816209</v>
       </c>
       <c r="DI5">
         <v>0.9978753005385117</v>
       </c>
       <c r="DJ5">
+        <v>1.007140645344393</v>
+      </c>
+      <c r="DK5">
+        <v>0.9551881724884979</v>
+      </c>
+      <c r="DL5">
         <v>0.9975144963849309</v>
       </c>
-      <c r="DK5">
+      <c r="DM5">
         <v>0.9942154103529283</v>
       </c>
-      <c r="DL5">
+      <c r="DN5">
         <v>1.008466795424894</v>
       </c>
       <c r="DO5">
-        <v>0.9964929436301005</v>
+        <v>0.9570165574458991</v>
+      </c>
+      <c r="DP5">
+        <v>0.9675101704257304</v>
+      </c>
+      <c r="DQ5">
+        <v>0.9275622266227991</v>
+      </c>
+      <c r="DR5">
+        <v>0.9326633226055394</v>
       </c>
       <c r="DS5">
         <v>0.9986145778434906</v>
       </c>
+      <c r="DT5">
+        <v>0.9713802736719375</v>
+      </c>
       <c r="DU5">
         <v>0.9981757188643204</v>
       </c>
       <c r="DV5">
         <v>1.00135501225203</v>
       </c>
+      <c r="DW5">
+        <v>0.9774698367197475</v>
+      </c>
       <c r="DX5">
-        <v>1.000732326574552</v>
+        <v>0.9889718357598677</v>
+      </c>
+      <c r="DY5">
+        <v>0.9677693318144109</v>
+      </c>
+      <c r="DZ5">
+        <v>0.9892191517657924</v>
+      </c>
+      <c r="EB5">
+        <v>0.9952823650836147</v>
+      </c>
+      <c r="EC5">
+        <v>1.01093376559611</v>
+      </c>
+      <c r="ED5">
+        <v>0.962600022426506</v>
+      </c>
+      <c r="EE5">
+        <v>0.9971793585615666</v>
+      </c>
+      <c r="EF5">
+        <v>1.004152863385511</v>
+      </c>
+      <c r="EH5">
+        <v>0.9937000891043993</v>
+      </c>
+      <c r="EI5">
+        <v>0.9743681832350347</v>
+      </c>
+      <c r="EJ5">
+        <v>0.9843895328212396</v>
+      </c>
+      <c r="EK5">
+        <v>1.011784662656469</v>
+      </c>
+      <c r="EL5">
+        <v>0.9952124727704146</v>
       </c>
       <c r="EM5">
-        <v>0.9963846028789684</v>
+        <v>0.984389220208286</v>
       </c>
       <c r="EN5">
-        <v>0.9908340221882729</v>
+        <v>0.9979263768120837</v>
       </c>
       <c r="EO5">
-        <v>0.9899209059061914</v>
+        <v>1.04413952542758</v>
       </c>
       <c r="EP5">
-        <v>0.9892191517657924</v>
+        <v>1.011570996667903</v>
       </c>
       <c r="EQ5">
-        <v>0.9952823650836147</v>
-      </c>
-      <c r="ET5">
-        <v>0.9971793585615666</v>
+        <v>0.9748313333438727</v>
+      </c>
+      <c r="ER5">
+        <v>0.9972503397767689</v>
+      </c>
+      <c r="EU5">
+        <v>0.9981676131873425</v>
+      </c>
+      <c r="EV5">
+        <v>1.004254832577625</v>
+      </c>
+      <c r="EW5">
+        <v>1.022584766412673</v>
       </c>
       <c r="EX5">
-        <v>1.021755503077235</v>
+        <v>1.013692570800111</v>
       </c>
       <c r="EY5">
-        <v>0.9962687747786104</v>
+        <v>0.9617649674729727</v>
+      </c>
+      <c r="EZ5">
+        <v>0.9917124497097869</v>
       </c>
       <c r="FA5">
-        <v>1.014340298537765</v>
+        <v>0.95381380474552</v>
+      </c>
+      <c r="FB5">
+        <v>1.018724915116674</v>
+      </c>
+      <c r="FC5">
+        <v>0.995473673030727</v>
+      </c>
+      <c r="FD5">
+        <v>0.9844536204963641</v>
       </c>
       <c r="FE5">
-        <v>1.015185403634668</v>
+        <v>1.048559971898336</v>
+      </c>
+      <c r="FF5">
+        <v>0.9677528714328337</v>
       </c>
       <c r="FG5">
-        <v>1.010431056789933</v>
+        <v>0.9405757519585173</v>
+      </c>
+      <c r="FI5">
+        <v>1.006244057822998</v>
+      </c>
+      <c r="FJ5">
+        <v>0.982190765319976</v>
+      </c>
+      <c r="FK5">
+        <v>1.013042118450585</v>
       </c>
       <c r="FL5">
-        <v>1.009159079893404</v>
-      </c>
-      <c r="FO5">
-        <v>1.036287087975712</v>
+        <v>1.032678993824047</v>
+      </c>
+      <c r="FM5">
+        <v>0.9991301360882259</v>
+      </c>
+      <c r="FN5">
+        <v>1.021239625034964</v>
+      </c>
+      <c r="FP5">
+        <v>1.011059149212489</v>
       </c>
       <c r="FQ5">
-        <v>1.024698571739224</v>
+        <v>1.002351501155725</v>
       </c>
       <c r="FR5">
-        <v>0.9968508567330072</v>
+        <v>0.9523560812231441</v>
+      </c>
+      <c r="FS5">
+        <v>1.023185538540942</v>
+      </c>
+      <c r="FT5">
+        <v>1.006250598178835</v>
+      </c>
+      <c r="FU5">
+        <v>1.024243742508191</v>
       </c>
       <c r="FV5">
-        <v>1.061810540285317</v>
+        <v>0.987614353615813</v>
+      </c>
+      <c r="FW5">
+        <v>0.9790686358707625</v>
+      </c>
+      <c r="FX5">
+        <v>1.042376271948531</v>
       </c>
       <c r="FY5">
-        <v>1.049306342854385</v>
+        <v>1.003023945483885</v>
+      </c>
+      <c r="FZ5">
+        <v>0.9918599391470152</v>
+      </c>
+      <c r="GA5">
+        <v>0.9375225470129421</v>
+      </c>
+      <c r="GB5">
+        <v>1.043128613425824</v>
+      </c>
+      <c r="GC5">
+        <v>1.108073033690937</v>
       </c>
       <c r="GD5">
-        <v>1.012741428221373</v>
+        <v>0.9691905550654126</v>
+      </c>
+      <c r="GE5">
+        <v>1.013679352302409</v>
       </c>
       <c r="GG5">
-        <v>0.9932297260680703</v>
+        <v>1.00540033763724</v>
+      </c>
+      <c r="GH5">
+        <v>1.013022580018859</v>
+      </c>
+      <c r="GI5">
+        <v>1.023678620594714</v>
+      </c>
+      <c r="GJ5">
+        <v>1.099576056226394</v>
+      </c>
+      <c r="GK5">
+        <v>1.004867961265262</v>
       </c>
       <c r="GL5">
-        <v>1.037923999433588</v>
+        <v>0.9979679097042283</v>
+      </c>
+      <c r="GM5">
+        <v>1.022039928919985</v>
+      </c>
+      <c r="GN5">
+        <v>1.048070904918693</v>
       </c>
       <c r="GO5">
-        <v>1.048070904918693</v>
+        <v>1.065031448810455</v>
+      </c>
+      <c r="GP5">
+        <v>0.9745924308765807</v>
+      </c>
+      <c r="GQ5">
+        <v>0.9828771135854428</v>
+      </c>
+      <c r="GR5">
+        <v>1.039387363663485</v>
+      </c>
+      <c r="GS5">
+        <v>1.019442911712</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -2517,236 +3204,347 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.070505330220817</v>
+      </c>
+      <c r="D6">
+        <v>1.074546143758882</v>
+      </c>
+      <c r="E6">
         <v>1.042324879621717</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.023241614529208</v>
+      </c>
+      <c r="H6">
+        <v>1.032325283350713</v>
+      </c>
+      <c r="I6">
+        <v>1.026183697779845</v>
+      </c>
+      <c r="J6">
         <v>1.074116898033564</v>
       </c>
-      <c r="D6">
-        <v>1.066607559419809</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.046179839159433</v>
       </c>
-      <c r="G6">
-        <v>1.06095459344127</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>1.059482246846957</v>
+      </c>
+      <c r="M6">
+        <v>1.057184083057789</v>
+      </c>
+      <c r="N6">
         <v>1.024682925904663</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.049142565609088</v>
       </c>
-      <c r="J6">
-        <v>1.019553645136984</v>
-      </c>
-      <c r="M6">
-        <v>1.023241614529208</v>
-      </c>
-      <c r="N6">
-        <v>1.066292196430751</v>
+      <c r="P6">
+        <v>1.021993945760815</v>
       </c>
       <c r="Q6">
-        <v>1.02024869538672</v>
-      </c>
-      <c r="S6">
-        <v>1.044184177823485</v>
-      </c>
-      <c r="T6">
-        <v>1.046733557305854</v>
+        <v>1.065651787636231</v>
+      </c>
+      <c r="V6">
+        <v>1.038138395895954</v>
       </c>
       <c r="W6">
-        <v>1.068823710282442</v>
-      </c>
-      <c r="X6">
-        <v>1.032325283350713</v>
+        <v>1.055681960408405</v>
       </c>
       <c r="Y6">
-        <v>1.042244587163339</v>
+        <v>1.041130034169383</v>
+      </c>
+      <c r="Z6">
+        <v>1.021386768779825</v>
       </c>
       <c r="AA6">
-        <v>1.055900370004474</v>
-      </c>
-      <c r="AB6">
-        <v>0.9425432008359731</v>
+        <v>1.122404795682665</v>
       </c>
       <c r="AC6">
-        <v>1.018425999661464</v>
+        <v>0.8347201760346933</v>
       </c>
       <c r="AD6">
-        <v>1.013690310822168</v>
+        <v>1.061730514249142</v>
       </c>
       <c r="AE6">
-        <v>1.016794649550618</v>
+        <v>1.066489323416843</v>
+      </c>
+      <c r="AF6">
+        <v>1.015962818775157</v>
       </c>
       <c r="AG6">
-        <v>0.9927135637353208</v>
+        <v>1.132551545619393</v>
       </c>
       <c r="AH6">
-        <v>1.030686810742419</v>
+        <v>1.059760395647892</v>
+      </c>
+      <c r="AI6">
+        <v>1.095465058217383</v>
       </c>
       <c r="AJ6">
-        <v>1.041037887853011</v>
+        <v>1.041774337443079</v>
       </c>
       <c r="AK6">
-        <v>1.040185123487877</v>
+        <v>1.039876664546087</v>
+      </c>
+      <c r="AL6">
+        <v>1.096881699678955</v>
       </c>
       <c r="AM6">
-        <v>1.057397440800975</v>
+        <v>0.9765672234474576</v>
       </c>
       <c r="AN6">
-        <v>1.076693752349922</v>
+        <v>1.100553476040395</v>
       </c>
       <c r="AO6">
-        <v>1.045002114397546</v>
+        <v>1.07291043702782</v>
       </c>
       <c r="AP6">
-        <v>1.019905593907873</v>
+        <v>1.06042234027598</v>
       </c>
       <c r="AQ6">
-        <v>1.100728894342231</v>
+        <v>1.052110588863974</v>
       </c>
       <c r="AR6">
-        <v>1.087279550392106</v>
+        <v>1.042452099268485</v>
+      </c>
+      <c r="AS6">
+        <v>1.060662152789358</v>
+      </c>
+      <c r="AT6">
+        <v>1.086976906266067</v>
+      </c>
+      <c r="AU6">
+        <v>1.068722594987953</v>
       </c>
       <c r="AV6">
-        <v>0.9933035264101845</v>
+        <v>1.018745621892415</v>
       </c>
       <c r="AW6">
-        <v>1.086840893483705</v>
+        <v>1.152494508346258</v>
       </c>
       <c r="AX6">
-        <v>1.029554462232625</v>
+        <v>1.015984850244937</v>
+      </c>
+      <c r="AY6">
+        <v>1.202000302464486</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9395449824827979</v>
       </c>
       <c r="BA6">
-        <v>1.053788649867658</v>
+        <v>1.045392248701759</v>
       </c>
       <c r="BB6">
-        <v>0.9994492624344622</v>
+        <v>1.049626796341668</v>
+      </c>
+      <c r="BC6">
+        <v>1.053115351013434</v>
       </c>
       <c r="BD6">
-        <v>1.042851211566607</v>
+        <v>1.065576034323167</v>
       </c>
       <c r="BE6">
-        <v>1.067037639627128</v>
+        <v>1.054508115071702</v>
       </c>
       <c r="BF6">
-        <v>1.022672562682269</v>
+        <v>1.057029002383375</v>
       </c>
       <c r="BG6">
-        <v>1.004762170539263</v>
+        <v>0.9281817455329726</v>
+      </c>
+      <c r="BH6">
+        <v>1.060185017006361</v>
       </c>
       <c r="BI6">
-        <v>1.061406693276821</v>
+        <v>1.044495655793617</v>
       </c>
       <c r="BJ6">
-        <v>1.070065374099378</v>
+        <v>1.096825373020224</v>
+      </c>
+      <c r="BK6">
+        <v>1.003738315797184</v>
       </c>
       <c r="BL6">
-        <v>1.089500310173179</v>
+        <v>1.093617144337806</v>
+      </c>
+      <c r="BM6">
+        <v>0.9054757180449382</v>
+      </c>
+      <c r="BN6">
+        <v>1.12282106809242</v>
       </c>
       <c r="BO6">
-        <v>1.031157837231848</v>
+        <v>0.9535170945520971</v>
+      </c>
+      <c r="BP6">
+        <v>1.023363345989987</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9688479746964462</v>
       </c>
       <c r="BR6">
-        <v>1.137662827653886</v>
+        <v>1.046341063076958</v>
       </c>
       <c r="BS6">
-        <v>1.084372595489234</v>
+        <v>1.080423654243092</v>
+      </c>
+      <c r="BT6">
+        <v>1.095698530493213</v>
       </c>
       <c r="BU6">
-        <v>1.086268858951837</v>
+        <v>1.033101277224997</v>
       </c>
       <c r="BV6">
-        <v>1.008122180877442</v>
+        <v>1.03735017107798</v>
+      </c>
+      <c r="BW6">
+        <v>1.074888983127439</v>
       </c>
       <c r="BX6">
-        <v>1.037958943529138</v>
+        <v>1.102748234977017</v>
       </c>
       <c r="BY6">
-        <v>1.074210674499271</v>
+        <v>1.014493923823495</v>
+      </c>
+      <c r="BZ6">
+        <v>1.133406414481686</v>
       </c>
       <c r="CA6">
-        <v>0.9697978295130981</v>
+        <v>0.9514193919629796</v>
+      </c>
+      <c r="CB6">
+        <v>0.9777597068352507</v>
       </c>
       <c r="CC6">
-        <v>0.9910413821575004</v>
+        <v>0.9379125862977551</v>
       </c>
       <c r="CD6">
-        <v>1.066356828203427</v>
+        <v>1.018144641000227</v>
       </c>
       <c r="CE6">
-        <v>0.9992957428383901</v>
+        <v>0.9562848857697167</v>
       </c>
       <c r="CF6">
-        <v>1.063223569264056</v>
+        <v>0.9534819490481857</v>
+      </c>
+      <c r="CG6">
+        <v>1.052470482831898</v>
       </c>
       <c r="CH6">
-        <v>1.020713225235869</v>
+        <v>1.039749859913773</v>
       </c>
       <c r="CI6">
-        <v>1.043312264817305</v>
+        <v>0.8990348514170807</v>
       </c>
       <c r="CJ6">
-        <v>1.085235244848056</v>
+        <v>0.956608092381109</v>
       </c>
       <c r="CK6">
-        <v>1.040790517885618</v>
+        <v>1.058003004550073</v>
       </c>
       <c r="CL6">
-        <v>0.9595946949433869</v>
+        <v>1.060981864120364</v>
       </c>
       <c r="CM6">
-        <v>1.057987724607789</v>
+        <v>1.092589128171202</v>
       </c>
       <c r="CN6">
-        <v>1.041436088429644</v>
+        <v>0.9759052789607163</v>
+      </c>
+      <c r="CO6">
+        <v>1.061542014708495</v>
       </c>
       <c r="CP6">
-        <v>1.015050786447433</v>
+        <v>1.007079118485377</v>
       </c>
       <c r="CQ6">
-        <v>1.010387742265581</v>
+        <v>1.164575718492988</v>
+      </c>
+      <c r="CR6">
+        <v>1.019798824387831</v>
       </c>
       <c r="CS6">
-        <v>1.034344151548308</v>
+        <v>1.051495036517846</v>
       </c>
       <c r="CT6">
-        <v>0.9699080431347351</v>
+        <v>0.8333135447891483</v>
+      </c>
+      <c r="CU6">
+        <v>1.049235165648813</v>
+      </c>
+      <c r="CV6">
+        <v>1.086336387717376</v>
+      </c>
+      <c r="CW6">
+        <v>1.055933926017405</v>
       </c>
       <c r="CX6">
         <v>1.005943584164812</v>
       </c>
+      <c r="CY6">
+        <v>0.964438775636305</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9284233869583211</v>
+      </c>
       <c r="DA6">
+        <v>1.001251120440763</v>
+      </c>
+      <c r="DB6">
         <v>1.000788947988659</v>
       </c>
-      <c r="DB6">
+      <c r="DD6">
         <v>1.019349649697413</v>
       </c>
-      <c r="DD6">
+      <c r="DE6">
+        <v>0.8916802090189485</v>
+      </c>
+      <c r="DF6">
         <v>0.9960747575282192</v>
       </c>
-      <c r="DE6">
+      <c r="DG6">
         <v>1.020530821837518</v>
       </c>
-      <c r="DG6">
-        <v>1.005665655689571</v>
+      <c r="DH6">
+        <v>0.9586913991492496</v>
       </c>
       <c r="DI6">
         <v>0.9908155793100907</v>
       </c>
       <c r="DJ6">
+        <v>1.005665655689571</v>
+      </c>
+      <c r="DK6">
+        <v>0.9290803133290397</v>
+      </c>
+      <c r="DL6">
         <v>0.9959553442629565</v>
       </c>
-      <c r="DL6">
+      <c r="DM6">
+        <v>0.9882956841276763</v>
+      </c>
+      <c r="DN6">
         <v>1.009760610369494</v>
       </c>
       <c r="DO6">
-        <v>0.9938516991733324</v>
+        <v>0.9544371625689738</v>
+      </c>
+      <c r="DP6">
+        <v>0.974469723925023</v>
+      </c>
+      <c r="DQ6">
+        <v>0.9291038649488365</v>
+      </c>
+      <c r="DR6">
+        <v>0.8873585963609644</v>
       </c>
       <c r="DS6">
         <v>0.9948219419453647</v>
       </c>
+      <c r="DT6">
+        <v>0.8760530564298016</v>
+      </c>
       <c r="DU6">
         <v>0.9973284028160768</v>
       </c>
@@ -2754,405 +3552,780 @@
         <v>1.00352823545635</v>
       </c>
       <c r="DW6">
-        <v>0.9820471700879573</v>
+        <v>0.9754353670223416</v>
       </c>
       <c r="DX6">
-        <v>1.00847718657563</v>
+        <v>0.9752642625917903</v>
+      </c>
+      <c r="DY6">
+        <v>0.9539650050067978</v>
+      </c>
+      <c r="DZ6">
+        <v>0.9896737622133778</v>
+      </c>
+      <c r="EB6">
+        <v>1.002515046151796</v>
+      </c>
+      <c r="EC6">
+        <v>1.00531300161836</v>
+      </c>
+      <c r="ED6">
+        <v>0.994809867285267</v>
+      </c>
+      <c r="EE6">
+        <v>1.001935603202776</v>
+      </c>
+      <c r="EF6">
+        <v>1.008673066630396</v>
+      </c>
+      <c r="EG6">
+        <v>0.9578554143141514</v>
+      </c>
+      <c r="EH6">
+        <v>0.9837701475937783</v>
+      </c>
+      <c r="EI6">
+        <v>0.9799194385090368</v>
+      </c>
+      <c r="EJ6">
+        <v>0.9948556478934185</v>
+      </c>
+      <c r="EK6">
+        <v>1.015651665282923</v>
+      </c>
+      <c r="EL6">
+        <v>1.002210177443378</v>
       </c>
       <c r="EM6">
-        <v>1.003724160482202</v>
+        <v>0.9859683516208003</v>
       </c>
       <c r="EN6">
-        <v>0.9933329618374303</v>
+        <v>0.9909426832758499</v>
       </c>
       <c r="EO6">
-        <v>0.9938780934102502</v>
+        <v>1.0384715435329</v>
       </c>
       <c r="EP6">
-        <v>0.9896737622133778</v>
+        <v>1.020052270007743</v>
       </c>
       <c r="EQ6">
-        <v>1.002515046151796</v>
+        <v>0.9807406128321807</v>
+      </c>
+      <c r="ER6">
+        <v>1.003910148496099</v>
+      </c>
+      <c r="ES6">
+        <v>0.934925743635017</v>
       </c>
       <c r="ET6">
-        <v>1.001935603202776</v>
+        <v>0.9480495742742659</v>
+      </c>
+      <c r="EU6">
+        <v>0.9735501662060644</v>
       </c>
       <c r="EV6">
-        <v>1.040122383244226</v>
+        <v>0.9937251585616231</v>
+      </c>
+      <c r="EW6">
+        <v>1.006785412844042</v>
       </c>
       <c r="EX6">
-        <v>1.013153004667584</v>
+        <v>1.006309103204785</v>
+      </c>
+      <c r="EY6">
+        <v>0.9559347563119381</v>
+      </c>
+      <c r="EZ6">
+        <v>0.9884686061860264</v>
       </c>
       <c r="FA6">
-        <v>1.006594510197561</v>
+        <v>0.9637902355955503</v>
+      </c>
+      <c r="FB6">
+        <v>1.010075576403755</v>
+      </c>
+      <c r="FC6">
+        <v>0.987846905832651</v>
+      </c>
+      <c r="FD6">
+        <v>0.9824956435438803</v>
       </c>
       <c r="FE6">
-        <v>1.006015588229005</v>
+        <v>1.040071009704337</v>
       </c>
       <c r="FF6">
-        <v>1.013128581655915</v>
+        <v>0.9658415984765598</v>
       </c>
       <c r="FG6">
-        <v>1.00375001788226</v>
+        <v>0.9218525117023463</v>
+      </c>
+      <c r="FH6">
+        <v>0.9682732014925215</v>
+      </c>
+      <c r="FI6">
+        <v>1.005968095963007</v>
+      </c>
+      <c r="FJ6">
+        <v>0.9614550663085807</v>
+      </c>
+      <c r="FK6">
+        <v>1.005029291180685</v>
       </c>
       <c r="FL6">
-        <v>1.00091459112464</v>
+        <v>1.023428774636467</v>
+      </c>
+      <c r="FM6">
+        <v>0.9957263346929782</v>
       </c>
       <c r="FN6">
-        <v>1.003591225480655</v>
+        <v>1.01996784008966</v>
       </c>
       <c r="FO6">
-        <v>1.031515564564534</v>
+        <v>1.049373187891185</v>
+      </c>
+      <c r="FP6">
+        <v>1.004728649618752</v>
       </c>
       <c r="FQ6">
-        <v>1.014369289259542</v>
+        <v>1.000058252446471</v>
       </c>
       <c r="FR6">
-        <v>0.9915532843670077</v>
+        <v>0.9210557564172428</v>
+      </c>
+      <c r="FS6">
+        <v>1.015332935845176</v>
+      </c>
+      <c r="FT6">
+        <v>1.004062449493874</v>
+      </c>
+      <c r="FU6">
+        <v>0.999914963165862</v>
       </c>
       <c r="FV6">
-        <v>1.051592672422486</v>
+        <v>0.9633906718655931</v>
       </c>
       <c r="FW6">
-        <v>0.9980297098461222</v>
+        <v>0.9683957255416201</v>
+      </c>
+      <c r="FX6">
+        <v>0.9967274447304194</v>
       </c>
       <c r="FY6">
-        <v>1.047037168116783</v>
+        <v>0.9950430321574383</v>
+      </c>
+      <c r="FZ6">
+        <v>0.9817717083724665</v>
+      </c>
+      <c r="GA6">
+        <v>0.9154281513216805</v>
       </c>
       <c r="GB6">
-        <v>1.004535806914364</v>
+        <v>0.9955626172686762</v>
       </c>
       <c r="GC6">
-        <v>1.00290291245251</v>
+        <v>1.102617388312322</v>
       </c>
       <c r="GD6">
-        <v>0.9854578593682025</v>
+        <v>0.9603016101848523</v>
+      </c>
+      <c r="GE6">
+        <v>1.015177547977058</v>
       </c>
       <c r="GG6">
-        <v>0.981290692045975</v>
+        <v>1.000485928179575</v>
+      </c>
+      <c r="GH6">
+        <v>0.9866860116294152</v>
+      </c>
+      <c r="GI6">
+        <v>1.013962317590181</v>
       </c>
       <c r="GJ6">
-        <v>0.9896270455885954</v>
+        <v>1.084734461877195</v>
+      </c>
+      <c r="GK6">
+        <v>0.9677233630386902</v>
       </c>
       <c r="GL6">
-        <v>1.028010701985563</v>
+        <v>0.9818024099488309</v>
+      </c>
+      <c r="GM6">
+        <v>0.9923517325229133</v>
       </c>
       <c r="GN6">
-        <v>1.007534426240224</v>
+        <v>1.041975761075405</v>
       </c>
       <c r="GO6">
-        <v>1.041975761075405</v>
+        <v>1.035841746362931</v>
+      </c>
+      <c r="GP6">
+        <v>0.9462307228385464</v>
+      </c>
+      <c r="GQ6">
+        <v>0.9608854409151377</v>
+      </c>
+      <c r="GR6">
+        <v>1.029582161232485</v>
       </c>
     </row>
     <row r="7" spans="1:201">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.035220023431403</v>
+      </c>
+      <c r="D7">
+        <v>1.0452924800698</v>
+      </c>
+      <c r="E7">
         <v>1.036499491790684</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>1.002801258706969</v>
+      </c>
+      <c r="H7">
+        <v>1.046657745866458</v>
+      </c>
+      <c r="J7">
         <v>1.054367419631339</v>
       </c>
-      <c r="D7">
-        <v>1.033824094021182</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.080078828180334</v>
       </c>
-      <c r="G7">
-        <v>1.065607113386504</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.077773056750684</v>
+      </c>
+      <c r="M7">
+        <v>1.076636964234853</v>
+      </c>
+      <c r="N7">
         <v>1.034826124352055</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.062084342733496</v>
       </c>
-      <c r="L7">
-        <v>1.047526350467715</v>
-      </c>
-      <c r="N7">
-        <v>1.018577439690059</v>
-      </c>
-      <c r="R7">
-        <v>1.058512067060586</v>
+      <c r="P7">
+        <v>1.066249677988703</v>
+      </c>
+      <c r="Q7">
+        <v>1.018905482207968</v>
       </c>
       <c r="T7">
-        <v>1.046179381319218</v>
+        <v>1.032212312193964</v>
+      </c>
+      <c r="U7">
+        <v>1.081264656876043</v>
       </c>
       <c r="V7">
-        <v>1.043302006626951</v>
-      </c>
-      <c r="X7">
-        <v>1.046657745866458</v>
+        <v>1.05212173973621</v>
+      </c>
+      <c r="W7">
+        <v>1.006096414177098</v>
       </c>
       <c r="Y7">
-        <v>1.077647842932966</v>
+        <v>1.040565269308024</v>
       </c>
       <c r="Z7">
-        <v>1.016219882785504</v>
+        <v>1.070576058888215</v>
       </c>
       <c r="AA7">
-        <v>1.032209716612577</v>
+        <v>1.040901638117911</v>
       </c>
       <c r="AC7">
-        <v>1.044737952671885</v>
-      </c>
-      <c r="AD7">
-        <v>1.021635390316469</v>
+        <v>0.8808115502141444</v>
       </c>
       <c r="AE7">
-        <v>0.9991485578294665</v>
+        <v>1.021104558619433</v>
+      </c>
+      <c r="AF7">
+        <v>1.022774910093623</v>
+      </c>
+      <c r="AG7">
+        <v>1.103882180872477</v>
       </c>
       <c r="AH7">
-        <v>1.017460013888372</v>
+        <v>1.029660027632431</v>
       </c>
       <c r="AI7">
-        <v>1.092686760999045</v>
+        <v>1.073719376258875</v>
       </c>
       <c r="AJ7">
-        <v>1.032258475561326</v>
+        <v>1.038290103516528</v>
       </c>
       <c r="AK7">
-        <v>1.050115444816317</v>
+        <v>1.025365382466908</v>
       </c>
       <c r="AL7">
-        <v>1.033838470927281</v>
+        <v>1.12978545498517</v>
       </c>
       <c r="AM7">
-        <v>1.03533424548704</v>
+        <v>1.000314954534918</v>
       </c>
       <c r="AO7">
-        <v>1.004996073046983</v>
+        <v>1.062473105788203</v>
       </c>
       <c r="AP7">
-        <v>1.01296193556104</v>
+        <v>1.065266322237036</v>
       </c>
       <c r="AQ7">
-        <v>1.117034628050718</v>
+        <v>1.079161525587847</v>
       </c>
       <c r="AR7">
-        <v>1.066321434953683</v>
+        <v>1.076869287560245</v>
+      </c>
+      <c r="AS7">
+        <v>1.039403746736346</v>
       </c>
       <c r="AT7">
-        <v>0.9983671350786415</v>
+        <v>1.069664251643097</v>
+      </c>
+      <c r="AU7">
+        <v>1.063115637427021</v>
       </c>
       <c r="AV7">
-        <v>1.00493017474327</v>
+        <v>1.022390692628986</v>
       </c>
       <c r="AW7">
-        <v>1.094678957354917</v>
+        <v>1.132578170066813</v>
       </c>
       <c r="AX7">
-        <v>0.9955740351086068</v>
+        <v>1.045051083598857</v>
+      </c>
+      <c r="AY7">
+        <v>1.210585038735022</v>
       </c>
       <c r="AZ7">
-        <v>1.087258925763448</v>
+        <v>1.025896863256784</v>
       </c>
       <c r="BA7">
-        <v>1.067448770855615</v>
+        <v>1.103749135213342</v>
       </c>
       <c r="BB7">
-        <v>1.019560350994725</v>
+        <v>1.051417838721422</v>
       </c>
       <c r="BC7">
-        <v>1.057013662134359</v>
+        <v>1.091188593181663</v>
+      </c>
+      <c r="BD7">
+        <v>1.107995804651464</v>
       </c>
       <c r="BE7">
-        <v>1.081477329124895</v>
+        <v>1.067586024325422</v>
       </c>
       <c r="BF7">
-        <v>1.036997381581322</v>
+        <v>1.088746952323177</v>
       </c>
       <c r="BG7">
-        <v>1.013379507770309</v>
+        <v>0.9757883377983818</v>
+      </c>
+      <c r="BH7">
+        <v>1.077384641052866</v>
       </c>
       <c r="BI7">
-        <v>1.091008361960257</v>
+        <v>1.058667300650288</v>
       </c>
       <c r="BJ7">
-        <v>1.094282655243205</v>
+        <v>1.122860969845908</v>
+      </c>
+      <c r="BK7">
+        <v>1.012436697949886</v>
       </c>
       <c r="BL7">
-        <v>1.123897347066259</v>
+        <v>1.120240833979676</v>
       </c>
       <c r="BM7">
-        <v>1.129101794146102</v>
+        <v>0.966583780683415</v>
+      </c>
+      <c r="BN7">
+        <v>1.138997909360983</v>
+      </c>
+      <c r="BO7">
+        <v>1.008108437736678</v>
+      </c>
+      <c r="BP7">
+        <v>1.043695287035986</v>
+      </c>
+      <c r="BQ7">
+        <v>1.110663532130994</v>
       </c>
       <c r="BR7">
-        <v>1.137307078843489</v>
+        <v>1.054751600629144</v>
       </c>
       <c r="BS7">
-        <v>1.107024978973105</v>
+        <v>1.094696731527312</v>
       </c>
       <c r="BT7">
-        <v>0.9961826402957584</v>
+        <v>1.145102861756651</v>
       </c>
       <c r="BU7">
-        <v>1.104951385014922</v>
+        <v>1.05284133950863</v>
       </c>
       <c r="BV7">
-        <v>1.050237413021761</v>
+        <v>1.049678299145129</v>
       </c>
       <c r="BW7">
-        <v>1.109822894778091</v>
+        <v>1.087228837087806</v>
       </c>
       <c r="BX7">
-        <v>1.050360771762678</v>
-      </c>
-      <c r="CA7">
-        <v>0.9857468212186888</v>
+        <v>1.125775532067821</v>
+      </c>
+      <c r="BY7">
+        <v>1.03223208723929</v>
+      </c>
+      <c r="BZ7">
+        <v>1.170305525160561</v>
       </c>
       <c r="CB7">
-        <v>1.025438958087771</v>
+        <v>0.9845661679067711</v>
       </c>
       <c r="CC7">
-        <v>0.9867832169254088</v>
+        <v>0.9371116644455303</v>
       </c>
       <c r="CD7">
-        <v>1.082556561917503</v>
+        <v>1.02999753514569</v>
       </c>
       <c r="CE7">
-        <v>1.027480619988121</v>
+        <v>0.9900263347436994</v>
       </c>
       <c r="CF7">
-        <v>1.053842195191194</v>
+        <v>0.987486623428984</v>
       </c>
       <c r="CG7">
-        <v>1.064784067376379</v>
+        <v>1.070280564837096</v>
       </c>
       <c r="CH7">
-        <v>1.025637854742735</v>
-      </c>
-      <c r="CJ7">
-        <v>1.106632439098625</v>
+        <v>1.044271553846927</v>
+      </c>
+      <c r="CI7">
+        <v>0.8855104212296941</v>
       </c>
       <c r="CK7">
-        <v>1.05890859880447</v>
+        <v>1.079075823615081</v>
+      </c>
+      <c r="CL7">
+        <v>1.060296006728761</v>
       </c>
       <c r="CM7">
-        <v>1.077510505698929</v>
+        <v>1.108410954336529</v>
       </c>
       <c r="CN7">
-        <v>1.046860466885458</v>
+        <v>0.9989503465633804</v>
+      </c>
+      <c r="CO7">
+        <v>1.078350633215594</v>
       </c>
       <c r="CP7">
-        <v>1.06930437592563</v>
+        <v>1.054723037167717</v>
       </c>
       <c r="CQ7">
-        <v>1.007596014903239</v>
+        <v>1.199887563648023</v>
+      </c>
+      <c r="CR7">
+        <v>1.032097957884059</v>
       </c>
       <c r="CS7">
-        <v>1.037147531042692</v>
+        <v>1.045512394354375</v>
+      </c>
+      <c r="CT7">
+        <v>0.9555359224576201</v>
+      </c>
+      <c r="CU7">
+        <v>1.067879681385771</v>
+      </c>
+      <c r="CV7">
+        <v>1.083881865481046</v>
       </c>
       <c r="CW7">
-        <v>0.9703022111943496</v>
+        <v>1.108007645424652</v>
       </c>
       <c r="CX7">
         <v>1.010751786465558</v>
       </c>
+      <c r="CY7">
+        <v>0.9478866260777412</v>
+      </c>
+      <c r="CZ7">
+        <v>0.9509195377355182</v>
+      </c>
       <c r="DA7">
+        <v>0.9772923175854699</v>
+      </c>
+      <c r="DB7">
         <v>0.9989235380060163</v>
       </c>
-      <c r="DB7">
+      <c r="DD7">
         <v>1.015950996455422</v>
       </c>
-      <c r="DD7">
+      <c r="DE7">
+        <v>1.004599045342838</v>
+      </c>
+      <c r="DF7">
         <v>0.9989713414053037</v>
       </c>
-      <c r="DE7">
+      <c r="DG7">
         <v>1.017266418659055</v>
       </c>
-      <c r="DG7">
-        <v>1.008325096909214</v>
+      <c r="DH7">
+        <v>0.968391672901208</v>
       </c>
       <c r="DI7">
         <v>1.00248470817372</v>
       </c>
       <c r="DJ7">
+        <v>1.008325096909214</v>
+      </c>
+      <c r="DK7">
+        <v>0.9438785981551554</v>
+      </c>
+      <c r="DL7">
         <v>0.998336450308659</v>
       </c>
-      <c r="DK7">
+      <c r="DM7">
         <v>0.9996501554926014</v>
       </c>
-      <c r="DL7">
+      <c r="DN7">
         <v>1.007148846434816</v>
       </c>
       <c r="DO7">
-        <v>1.000172778634131</v>
+        <v>0.9679290682173753</v>
+      </c>
+      <c r="DP7">
+        <v>0.974733845746982</v>
+      </c>
+      <c r="DQ7">
+        <v>0.931743141336746</v>
+      </c>
+      <c r="DR7">
+        <v>0.9542327212602637</v>
       </c>
       <c r="DS7">
         <v>0.9994835099317395</v>
       </c>
+      <c r="DT7">
+        <v>0.9727894814402208</v>
+      </c>
       <c r="DU7">
         <v>0.9976564797171437</v>
       </c>
       <c r="DV7">
         <v>1.000869189528186</v>
       </c>
+      <c r="DW7">
+        <v>0.9602810056139691</v>
+      </c>
       <c r="DX7">
-        <v>0.9940202022603825</v>
+        <v>1.010642420945413</v>
+      </c>
+      <c r="DY7">
+        <v>0.9706806287519166</v>
+      </c>
+      <c r="DZ7">
+        <v>0.9874819189631006</v>
+      </c>
+      <c r="EA7">
+        <v>0.973878031717009</v>
+      </c>
+      <c r="EB7">
+        <v>0.9932239563597294</v>
+      </c>
+      <c r="EC7">
+        <v>1.017884577309002</v>
+      </c>
+      <c r="ED7">
+        <v>0.9981670569612563</v>
+      </c>
+      <c r="EE7">
+        <v>0.9964936101769054</v>
+      </c>
+      <c r="EF7">
+        <v>1.004393433982453</v>
       </c>
       <c r="EG7">
+        <v>0.9820992090119434</v>
+      </c>
+      <c r="EH7">
+        <v>0.9897506769935668</v>
+      </c>
+      <c r="EI7">
+        <v>0.9747460388238179</v>
+      </c>
+      <c r="EJ7">
+        <v>0.9809635027328356</v>
+      </c>
+      <c r="EK7">
+        <v>1.009368069549839</v>
+      </c>
+      <c r="EL7">
+        <v>0.9898902583026143</v>
+      </c>
+      <c r="EM7">
+        <v>0.9877906569926436</v>
+      </c>
+      <c r="EN7">
         <v>1.018096849875546</v>
       </c>
-      <c r="EM7">
-        <v>0.9948118485717763</v>
-      </c>
-      <c r="EN7">
-        <v>0.9852732500038027</v>
-      </c>
       <c r="EO7">
-        <v>0.9856288749988884</v>
+        <v>1.035923013875698</v>
       </c>
       <c r="EP7">
-        <v>0.9874819189631006</v>
+        <v>1.006306192254703</v>
       </c>
       <c r="EQ7">
-        <v>0.9932239563597294</v>
+        <v>1.014311459813139</v>
+      </c>
+      <c r="ER7">
+        <v>0.9937549405873306</v>
+      </c>
+      <c r="ES7">
+        <v>0.9255990996853426</v>
       </c>
       <c r="ET7">
-        <v>0.9964936101769054</v>
+        <v>0.9318811517323189</v>
+      </c>
+      <c r="EU7">
+        <v>0.9991445416897694</v>
+      </c>
+      <c r="EV7">
+        <v>0.9988644725236494</v>
+      </c>
+      <c r="EW7">
+        <v>1.015574494679032</v>
       </c>
       <c r="EX7">
-        <v>1.021344830070741</v>
+        <v>1.009713950696311</v>
       </c>
       <c r="EY7">
-        <v>0.996012743518462</v>
+        <v>0.9586770900886232</v>
+      </c>
+      <c r="EZ7">
+        <v>0.9690475407244519</v>
+      </c>
+      <c r="FA7">
+        <v>0.967807324851221</v>
+      </c>
+      <c r="FB7">
+        <v>1.014685223976815</v>
+      </c>
+      <c r="FC7">
+        <v>0.9930391604278851</v>
+      </c>
+      <c r="FD7">
+        <v>0.9622463882269214</v>
       </c>
       <c r="FE7">
-        <v>1.012710477919956</v>
+        <v>1.031087892773618</v>
       </c>
       <c r="FF7">
-        <v>1.007097798480616</v>
+        <v>0.9563678527818726</v>
       </c>
       <c r="FG7">
-        <v>1.00708932100714</v>
+        <v>0.9230890628995467</v>
+      </c>
+      <c r="FH7">
+        <v>1.001299819992587</v>
+      </c>
+      <c r="FI7">
+        <v>0.9978114131019498</v>
+      </c>
+      <c r="FJ7">
+        <v>0.9505526297962668</v>
+      </c>
+      <c r="FK7">
+        <v>1.012538718394149</v>
       </c>
       <c r="FL7">
-        <v>1.002292035230742</v>
+        <v>1.012602604025225</v>
+      </c>
+      <c r="FM7">
+        <v>0.9990096925675083</v>
       </c>
       <c r="FN7">
-        <v>0.989339389061534</v>
-      </c>
-      <c r="FO7">
-        <v>1.033896665942162</v>
+        <v>1.021720403286063</v>
+      </c>
+      <c r="FP7">
+        <v>1.005815051695553</v>
       </c>
       <c r="FQ7">
-        <v>1.024481855513677</v>
+        <v>1.001384680049908</v>
       </c>
       <c r="FR7">
-        <v>0.9938940732269336</v>
+        <v>0.9373120476471875</v>
+      </c>
+      <c r="FS7">
+        <v>1.020253877725627</v>
+      </c>
+      <c r="FT7">
+        <v>0.9863919873240796</v>
+      </c>
+      <c r="FU7">
+        <v>1.010442458490044</v>
+      </c>
+      <c r="FV7">
+        <v>0.9708138970741413</v>
+      </c>
+      <c r="FW7">
+        <v>0.9691643450648897</v>
+      </c>
+      <c r="FX7">
+        <v>1.007306920279987</v>
+      </c>
+      <c r="FY7">
+        <v>0.9985404782496614</v>
+      </c>
+      <c r="FZ7">
+        <v>0.9779864768964948</v>
+      </c>
+      <c r="GA7">
+        <v>0.9270202600742108</v>
       </c>
       <c r="GB7">
-        <v>1.001992345587281</v>
+        <v>0.9911051795784596</v>
       </c>
       <c r="GC7">
-        <v>1.001766975622049</v>
+        <v>1.086169670267954</v>
       </c>
       <c r="GD7">
-        <v>0.9727278908960204</v>
+        <v>0.9618871751340891</v>
+      </c>
+      <c r="GE7">
+        <v>0.9856729232878798</v>
+      </c>
+      <c r="GG7">
+        <v>0.9991416586711463</v>
+      </c>
+      <c r="GH7">
+        <v>1.015467310331489</v>
+      </c>
+      <c r="GI7">
+        <v>1.013795307743253</v>
+      </c>
+      <c r="GJ7">
+        <v>1.090131553777364</v>
+      </c>
+      <c r="GK7">
+        <v>0.991349167051406</v>
+      </c>
+      <c r="GL7">
+        <v>0.981810255224561</v>
+      </c>
+      <c r="GM7">
+        <v>0.9908364879766979</v>
+      </c>
+      <c r="GN7">
+        <v>1.042086362996937</v>
+      </c>
+      <c r="GO7">
+        <v>1.035933303851256</v>
+      </c>
+      <c r="GP7">
+        <v>0.9515563548176585</v>
+      </c>
+      <c r="GQ7">
+        <v>0.9641267383636791</v>
+      </c>
+      <c r="GR7">
+        <v>1.020677806970806</v>
       </c>
     </row>
   </sheetData>
